--- a/_data/XRPUSDT_1d.xlsx
+++ b/_data/XRPUSDT_1d.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20421,6 +20421,166 @@
         <v>212355692</v>
       </c>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B1002">
+        <v>0.5667</v>
+      </c>
+      <c r="C1002">
+        <v>0.5845</v>
+      </c>
+      <c r="D1002">
+        <v>0.5558</v>
+      </c>
+      <c r="E1002">
+        <v>0.5693</v>
+      </c>
+      <c r="F1002">
+        <v>312994647</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B1003">
+        <v>0.5692</v>
+      </c>
+      <c r="C1003">
+        <v>0.577</v>
+      </c>
+      <c r="D1003">
+        <v>0.5573</v>
+      </c>
+      <c r="E1003">
+        <v>0.5619</v>
+      </c>
+      <c r="F1003">
+        <v>209040650</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1004">
+        <v>0.5618</v>
+      </c>
+      <c r="C1004">
+        <v>0.5678</v>
+      </c>
+      <c r="D1004">
+        <v>0.5462</v>
+      </c>
+      <c r="E1004">
+        <v>0.5667</v>
+      </c>
+      <c r="F1004">
+        <v>258840588</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1005">
+        <v>0.5667</v>
+      </c>
+      <c r="C1005">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D1005">
+        <v>0.5624</v>
+      </c>
+      <c r="E1005">
+        <v>0.5662</v>
+      </c>
+      <c r="F1005">
+        <v>67155202</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1006">
+        <v>0.5662</v>
+      </c>
+      <c r="C1006">
+        <v>0.5667</v>
+      </c>
+      <c r="D1006">
+        <v>0.5515</v>
+      </c>
+      <c r="E1006">
+        <v>0.5558</v>
+      </c>
+      <c r="F1006">
+        <v>66035261</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1007">
+        <v>0.5471</v>
+      </c>
+      <c r="C1007">
+        <v>0.5574</v>
+      </c>
+      <c r="D1007">
+        <v>0.5443</v>
+      </c>
+      <c r="E1007">
+        <v>0.5564</v>
+      </c>
+      <c r="F1007">
+        <v>89869980</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6">
+      <c r="A1008" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1008">
+        <v>0.5677</v>
+      </c>
+      <c r="C1008">
+        <v>0.5724</v>
+      </c>
+      <c r="D1008">
+        <v>0.5565</v>
+      </c>
+      <c r="E1008">
+        <v>0.5572</v>
+      </c>
+      <c r="F1008">
+        <v>179781483</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6">
+      <c r="A1009" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1009">
+        <v>0.5572</v>
+      </c>
+      <c r="C1009">
+        <v>0.5648</v>
+      </c>
+      <c r="D1009">
+        <v>0.5326</v>
+      </c>
+      <c r="E1009">
+        <v>0.5577</v>
+      </c>
+      <c r="F1009">
+        <v>254432900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
